--- a/src/com/quiksilver/config/TestData.xlsx
+++ b/src/com/quiksilver/config/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="620" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="820" yWindow="620" windowWidth="36300" windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>FNAME</t>
   </si>
@@ -134,6 +134,48 @@
   </si>
   <si>
     <t>Visa</t>
+  </si>
+  <si>
+    <t>Veronica</t>
+  </si>
+  <si>
+    <t>222 Sutter Street</t>
+  </si>
+  <si>
+    <t>Floor 8</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>ADDRESS1US</t>
+  </si>
+  <si>
+    <t>ZIPUS</t>
+  </si>
+  <si>
+    <t>ADDRESS2US</t>
+  </si>
+  <si>
+    <t>CITYUS</t>
+  </si>
+  <si>
+    <t>123 Crespi Driver</t>
+  </si>
+  <si>
+    <t>apt 1</t>
+  </si>
+  <si>
+    <t>STATEUS</t>
+  </si>
+  <si>
+    <t>DataRowfirst</t>
+  </si>
+  <si>
+    <t>DataRowsecond</t>
   </si>
 </sst>
 </file>
@@ -218,7 +260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,8 +268,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,14 +287,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,10 +644,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -592,9 +658,11 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,13 +693,28 @@
       <c r="J1" t="s">
         <v>36</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="28">
+    <row r="2" spans="1:15" ht="28">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -653,13 +736,28 @@
       <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="K2" s="7">
+        <v>94108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="28">
+    <row r="3" spans="1:15" ht="28">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -680,6 +778,21 @@
       </c>
       <c r="J3" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="K3" s="7">
+        <v>94132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -699,12 +812,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="28">
+    <row r="1" spans="1:10" ht="42">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -732,7 +845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28">
+    <row r="2" spans="1:10" ht="42">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -760,7 +873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28">
+    <row r="3" spans="1:10" ht="42">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="28">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>

--- a/src/com/quiksilver/config/TestData.xlsx
+++ b/src/com/quiksilver/config/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>FNAME</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>DataRowsecond</t>
+  </si>
+  <si>
+    <t>94132-2423</t>
+  </si>
+  <si>
+    <t>94108-4459</t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -647,18 +656,19 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="16" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="11" max="11" width="14.33203125" style="7" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -669,7 +679,7 @@
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -716,7 +726,7 @@
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -736,8 +746,8 @@
       <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="7">
-        <v>94108</v>
+      <c r="K2" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
@@ -759,7 +769,7 @@
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -779,8 +789,8 @@
       <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="7">
-        <v>94132</v>
+      <c r="K3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>47</v>
